--- a/文档/需求方提供文档/音乐播放器埋点.xlsx
+++ b/文档/需求方提供文档/音乐播放器埋点.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konglingjie/Desktop/company/testproject/文档/需求方提供文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23355" windowHeight="6660"/>
+    <workbookView xWindow="320" yWindow="4760" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,71 +27,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>埋点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid 设备唯一码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 分类点击（热门 华语 流行...等）
-听了那首歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的音乐</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听了那首歌曲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 下载哪首歌曲 
-我喜欢的音乐（收藏哪首）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各榜单
-热门歌单分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余下载次数
-分享次应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歌曲分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢的音乐（收藏哪首）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">各榜单
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门歌单分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剩余下载次数
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享次应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_fm_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_fm_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_category</t>
+  </si>
+  <si>
+    <t>name_song</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌曲名称</t>
+    <rPh sb="0" eb="1">
+      <t>ge'qu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_mymusic_id</t>
+  </si>
+  <si>
+    <t>name_download</t>
+  </si>
+  <si>
+    <t>name_download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_collect</t>
+  </si>
+  <si>
+    <t>action_discover_id</t>
+  </si>
+  <si>
+    <t>榜单名称</t>
+    <rPh sb="0" eb="1">
+      <t>bang'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mign'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌单名称</t>
+    <rPh sb="0" eb="1">
+      <t>ge'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_search_id</t>
+  </si>
+  <si>
+    <t>name_search</t>
+  </si>
+  <si>
+    <t>关键字字串</t>
+    <rPh sb="0" eb="1">
+      <t>guan'jian'zi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_me_id</t>
+  </si>
+  <si>
+    <t>remainDownloadAmount</t>
+  </si>
+  <si>
+    <t>次数</t>
+    <rPh sb="0" eb="1">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_share</t>
+  </si>
+  <si>
+    <t>action_songshare_id</t>
+  </si>
+  <si>
+    <t>name_songshare</t>
+  </si>
+  <si>
+    <t>action_uuid_id</t>
+  </si>
+  <si>
+    <t>name_uuid</t>
+  </si>
+  <si>
+    <t>唯一码</t>
+    <rPh sb="0" eb="1">
+      <t>wei'yi'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_exitapp_id</t>
+  </si>
+  <si>
+    <t>action_appduration_id</t>
   </si>
   <si>
     <t>应用运行时长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uid 设备唯一码</t>
+    <t>时长</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <rPh sb="0" eb="1">
+      <t>guang'gao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_ad_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,14 +271,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,12 +373,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -237,12 +408,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -422,81 +593,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
